--- a/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
+++ b/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\帅地_后端训练营\算法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\帅地_后端训练营\算法\不开代码提示手写算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC27329-C529-4022-B4D2-C9B8B3CB7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FD473-67B7-4D48-BBDB-0F4BB7C2472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="121">
   <si>
     <t>5. LeetCode69.x的平方根.🌟🌟🌟🌟🌟简单</t>
   </si>
@@ -864,6 +864,9 @@
       <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
+++ b/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\帅地_后端训练营\算法\不开代码提示手写算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FD473-67B7-4D48-BBDB-0F4BB7C2472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093793E2-8AD4-4506-82A0-5372A50CE23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="121">
   <si>
     <t>5. LeetCode69.x的平方根.🌟🌟🌟🌟🌟简单</t>
   </si>
@@ -816,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,6 +910,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
+++ b/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\帅地_后端训练营\算法\不开代码提示手写算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093793E2-8AD4-4506-82A0-5372A50CE23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19728DF5-5C8E-42E6-BDE3-B30B74CF557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="121">
   <si>
     <t>5. LeetCode69.x的平方根.🌟🌟🌟🌟🌟简单</t>
   </si>
@@ -816,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,6 +925,9 @@
       <c r="C8" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -936,6 +939,9 @@
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -968,6 +974,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
+++ b/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\帅地_后端训练营\算法\不开代码提示手写算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19728DF5-5C8E-42E6-BDE3-B30B74CF557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A808B-CBA8-4B5E-87C3-2DB4E51167AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="121">
   <si>
     <t>5. LeetCode69.x的平方根.🌟🌟🌟🌟🌟简单</t>
   </si>
@@ -815,8 +815,8 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,6 +989,9 @@
       <c r="C13" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1000,6 +1003,9 @@
       <c r="C14" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1022,8 +1028,11 @@
       <c r="C16" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1033,8 +1042,11 @@
       <c r="C17" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,8 +1056,11 @@
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>

--- a/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
+++ b/Git桌面-不放大文件/帅地_后端训练营/算法/不开代码提示手写算法/每周20+道算法题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\帅地_后端训练营\算法\不开代码提示手写算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A808B-CBA8-4B5E-87C3-2DB4E51167AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D7DB89-1912-4E04-849A-0863FDC748ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
   <si>
     <t>5. LeetCode69.x的平方根.🌟🌟🌟🌟🌟简单</t>
   </si>
@@ -816,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1069,9 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
